--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_5_summer_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_5_summer_perfect/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>2kRlDPnm6MxDizM</t>
+    <t>W51948i48i0nWnv</t>
   </si>
   <si>
     <t>000019889.csv</t>
@@ -1580,7 +1580,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_4', 'sfh_9', 'sfh_24', 'sfh_14', 'sfh_33']</t>
+    <t>['sfh_34', 'sfh_33', 'sfh_18', 'sfh_19', 'sfh_24']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2835,11 +2835,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>3</v>
+      <c r="G2">
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2848,7 +2848,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3289,7 +3289,7 @@
         <v>487</v>
       </c>
       <c r="IN2">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3362,7 +3362,7 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3784,7 +3784,7 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4133,7 +4133,7 @@
         <v>487</v>
       </c>
       <c r="IN4">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4206,11 +4206,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4219,7 +4219,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4660,7 +4660,7 @@
         <v>487</v>
       </c>
       <c r="IN5">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4717,7 +4717,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>503</v>
@@ -4793,14 +4793,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>328</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4809,7 +4806,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4953,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5145,7 +5142,7 @@
         <v>487</v>
       </c>
       <c r="IN6">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5196,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5205,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5218,7 +5215,7 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
       <c r="H7">
@@ -5390,7 +5387,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5672,7 +5669,7 @@
         <v>487</v>
       </c>
       <c r="IN7">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5723,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5732,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5745,7 +5742,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
@@ -5917,7 +5914,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -6199,7 +6196,7 @@
         <v>487</v>
       </c>
       <c r="IN8">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6256,7 +6253,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6271,7 +6268,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8" t="s">
         <v>504</v>
@@ -6311,7 +6308,7 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
@@ -6483,7 +6480,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6816,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6825,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>505</v>
@@ -6865,11 +6862,11 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>4</v>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6878,7 +6875,7 @@
         <v>2.6</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7022,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -7265,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7274,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7287,14 +7284,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>328</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7303,7 +7297,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7447,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7639,7 +7633,7 @@
         <v>487</v>
       </c>
       <c r="IN11">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7690,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7699,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7712,7 +7706,7 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
@@ -7869,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -8061,7 +8055,7 @@
         <v>487</v>
       </c>
       <c r="IN12">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8112,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8121,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:290">
@@ -8134,11 +8128,11 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
-        <v>3</v>
+      <c r="G13">
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -8147,7 +8141,7 @@
         <v>2.6</v>
       </c>
       <c r="K13">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -8291,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8534,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8543,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8556,7 +8550,7 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
@@ -8713,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8905,7 +8899,7 @@
         <v>487</v>
       </c>
       <c r="IN14">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -8956,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -8965,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -8978,11 +8972,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>4</v>
+      <c r="G15">
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -8991,7 +8985,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9150,7 +9144,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9405,7 +9399,7 @@
         <v>487</v>
       </c>
       <c r="IN15">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9456,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9465,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9478,14 +9472,11 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>328</v>
+      <c r="G16">
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -9494,7 +9485,7 @@
         <v>2.6</v>
       </c>
       <c r="K16">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9638,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9830,7 +9821,7 @@
         <v>487</v>
       </c>
       <c r="IN16">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9881,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9890,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:290">
@@ -9903,7 +9894,7 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
@@ -10075,7 +10066,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10330,7 +10321,7 @@
         <v>487</v>
       </c>
       <c r="IN17">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10381,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10390,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:290">
@@ -10403,7 +10394,7 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
@@ -10575,7 +10566,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10857,7 +10848,7 @@
         <v>487</v>
       </c>
       <c r="IN18">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10908,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10917,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:290">
@@ -10930,11 +10921,11 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>4</v>
+      <c r="G19">
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -10943,7 +10934,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11102,7 +11093,7 @@
         <v>50</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11408,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11417,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:290">
@@ -11430,11 +11421,14 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>3</v>
+      <c r="F20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11443,7 +11437,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11587,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11779,7 +11773,7 @@
         <v>487</v>
       </c>
       <c r="IN20">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -11830,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11839,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:290">
@@ -11852,11 +11846,14 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>3</v>
+      <c r="F21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -11865,7 +11862,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12009,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12201,7 +12198,7 @@
         <v>487</v>
       </c>
       <c r="IN21">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12252,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12261,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:290">
@@ -12274,11 +12271,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>4</v>
+      <c r="G22">
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12287,7 +12284,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12431,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12623,7 +12620,7 @@
         <v>487</v>
       </c>
       <c r="IN22">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -12674,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12683,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:290">
@@ -12696,7 +12693,7 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
@@ -12868,7 +12865,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13150,7 +13147,7 @@
         <v>487</v>
       </c>
       <c r="IN23">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13207,7 +13204,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13222,7 +13219,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>506</v>
@@ -13262,11 +13259,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>3</v>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13275,7 +13272,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13434,7 +13431,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13689,7 +13686,7 @@
         <v>487</v>
       </c>
       <c r="IN24">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -13740,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13749,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:290">
@@ -13762,7 +13759,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -13934,7 +13931,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14189,7 +14186,7 @@
         <v>487</v>
       </c>
       <c r="IN25">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14240,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14249,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:290">
@@ -14262,14 +14259,14 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
         <v>328</v>
       </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
       <c r="H26">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14278,7 +14275,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14422,7 +14419,7 @@
         <v>0</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14614,7 +14611,7 @@
         <v>487</v>
       </c>
       <c r="IN26">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14665,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14674,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:290">
@@ -14687,11 +14684,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>3</v>
+      <c r="G27">
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -14700,7 +14697,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -14859,7 +14856,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15141,7 +15138,7 @@
         <v>487</v>
       </c>
       <c r="IN27">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15192,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15201,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:290">
@@ -15214,7 +15211,7 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
@@ -15386,7 +15383,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15725,7 +15722,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15734,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:290">
@@ -15747,11 +15744,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>3</v>
+      <c r="G29">
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -15760,7 +15757,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -15919,7 +15916,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16147,7 +16144,7 @@
         <v>487</v>
       </c>
       <c r="IN29">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16204,7 +16201,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16213,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:290">
@@ -16226,11 +16223,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16239,7 +16236,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16398,7 +16395,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16680,7 +16677,7 @@
         <v>487</v>
       </c>
       <c r="IN30">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16731,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16740,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM30" t="s">
         <v>507</v>
@@ -16807,7 +16804,7 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
@@ -16979,7 +16976,7 @@
         <v>41</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17261,7 +17258,7 @@
         <v>487</v>
       </c>
       <c r="IN31">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17318,7 +17315,7 @@
         <v>41</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17327,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM31" t="s">
         <v>508</v>
@@ -17394,11 +17391,11 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
+      <c r="G32">
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17407,7 +17404,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17566,7 +17563,7 @@
         <v>65</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17848,7 +17845,7 @@
         <v>487</v>
       </c>
       <c r="IN32">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17905,7 +17902,7 @@
         <v>64</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH32">
         <v>4000</v>
@@ -17920,7 +17917,7 @@
         <v>65</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17933,11 +17930,11 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
-        <v>3</v>
+      <c r="G33">
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -17946,7 +17943,7 @@
         <v>2.6</v>
       </c>
       <c r="K33">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -18105,7 +18102,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18387,7 +18384,7 @@
         <v>487</v>
       </c>
       <c r="IN33">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18438,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18447,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18460,7 +18457,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>4</v>
       </c>
       <c r="H34">
@@ -18632,7 +18629,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18914,7 +18911,7 @@
         <v>487</v>
       </c>
       <c r="IN34">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18965,7 +18962,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18974,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>509</v>
@@ -19041,11 +19038,11 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G35">
         <v>4</v>
-      </c>
-      <c r="G35" t="s">
-        <v>328</v>
       </c>
       <c r="H35">
         <v>130</v>
@@ -19201,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19393,7 +19390,7 @@
         <v>487</v>
       </c>
       <c r="IN35">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19444,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19453,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19466,7 +19463,10 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36">
         <v>4</v>
       </c>
       <c r="H36">
@@ -19623,7 +19623,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19815,7 +19815,7 @@
         <v>487</v>
       </c>
       <c r="IN36">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19875,7 +19875,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19888,11 +19888,11 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>3</v>
+      <c r="G37">
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19901,7 +19901,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -20060,7 +20060,7 @@
         <v>90</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20342,7 +20342,7 @@
         <v>487</v>
       </c>
       <c r="IN37">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20399,7 +20399,7 @@
         <v>71</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37">
         <v>10600</v>
@@ -20414,7 +20414,7 @@
         <v>71</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20427,7 +20427,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
@@ -20599,7 +20599,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20881,7 +20881,7 @@
         <v>487</v>
       </c>
       <c r="IN38">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20932,7 +20932,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20941,7 +20941,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20954,11 +20954,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>4</v>
+      <c r="G39">
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -20967,7 +20967,7 @@
         <v>2.6</v>
       </c>
       <c r="K39">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -21126,7 +21126,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21408,7 +21408,7 @@
         <v>487</v>
       </c>
       <c r="IN39">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21465,7 +21465,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21474,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21487,11 +21487,11 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>4</v>
+      <c r="G40">
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -21500,7 +21500,7 @@
         <v>2.6</v>
       </c>
       <c r="K40">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -21644,7 +21644,7 @@
         <v>0</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21836,7 +21836,7 @@
         <v>487</v>
       </c>
       <c r="IN40">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21887,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21896,7 +21896,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21929,7 +21929,7 @@
         <v>514</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>515</v>
@@ -22048,7 +22048,7 @@
         <v>487</v>
       </c>
       <c r="S2">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="T2">
         <v>1</v>
